--- a/mathTransformed/HMPSTT_(2018-08-12)_36_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-08-12)_36_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -471,7 +476,8 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -500,6 +506,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S Arakeri Yelburga</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -527,6 +538,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>S G R S High School kanakagiri</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -554,6 +570,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S MallapurGangavathi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -578,6 +599,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S NiloorAfzalpur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -605,6 +631,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S BuragapalliSedam</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -632,6 +663,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G J C Bhagyanagar</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -659,6 +695,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>B G H S Tavaragera Kustagi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -683,6 +724,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S MannurAfzalpur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -710,6 +756,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S Kanagadda</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Sedam Kalaburgi</t>
         </is>
       </c>
@@ -737,6 +788,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S HosurAfzalpur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -761,6 +817,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S StationGanagapurAfzalpur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -788,6 +849,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S YadagaSedam</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -815,6 +881,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G P U College HanamanalKushtagi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -842,6 +913,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya Taluvagera</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Kushtagi</t>
         </is>
       </c>
@@ -866,6 +942,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S GhattargaAfzalpur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -893,6 +974,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S GanadhalYelaburga</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -920,6 +1006,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S KinnisultanAland</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -947,6 +1038,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S AloorJewargi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -974,6 +1070,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S ShadipurChincholi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1001,6 +1102,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>B Shyamsunder Memorial High School Rajapur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1025,7 +1131,8 @@
           <t>PRIYA S J</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t xml:space="preserve">PRIYA S </t>
         </is>
@@ -1043,6 +1150,11 @@
         </is>
       </c>
       <c r="F25" t="inlineStr">
+        <is>
+          <t>G H S BalabattiJewargi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Kalaburgi</t>
         </is>
@@ -1071,6 +1183,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S KoradakeraKushtagi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1098,6 +1215,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S (RMSA) BaragurGangavathi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1125,6 +1247,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S Taralakatti Yalaburga</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1152,6 +1279,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>A V (RMSA) ChennurJewargi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1179,6 +1311,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S RudnoorChincholi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1203,6 +1340,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Sri Sevaniketan High School Melkunda(B)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Kalburgai</t>
         </is>
       </c>
@@ -1230,6 +1372,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>H R Sarojamma Comp. Jr. Coll. Gangavathi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1257,6 +1404,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G G H S MudholSedam</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1284,6 +1436,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S SangolgiAland</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1311,6 +1468,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H S MatakiAland</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1338,6 +1500,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S(RMSA) ShivoorAfzalpura</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1365,6 +1532,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S TalakeriYelburga</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1392,6 +1564,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S KaramudiYelaburga</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1419,6 +1596,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H S UdagiSedam</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1445,6 +1627,11 @@
         </is>
       </c>
       <c r="F40" t="inlineStr">
+        <is>
+          <t>G H S MudenoorKushtagi</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Koppal</t>
         </is>

--- a/mathTransformed/HMPSTT_(2018-08-12)_36_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-08-12)_36_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,6 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
@@ -604,7 +603,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -636,7 +635,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -729,7 +728,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -793,7 +792,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -822,7 +821,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -854,7 +853,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -947,7 +946,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1010,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1042,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1074,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1106,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1130,6 @@
           <t>PRIYA S J</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t xml:space="preserve">PRIYA S </t>
@@ -1156,7 +1154,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1282,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1314,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1407,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1439,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1471,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1503,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1599,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2018-08-12)_36_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-08-12)_36_4.xlsx
@@ -760,7 +760,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sedam Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Kushtagi</t>
+          <t>Koppal</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Kalburgai</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
